--- a/config/carrefour_shop_schedule.xlsx
+++ b/config/carrefour_shop_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63659C40-35A6-4381-BE5D-F266225FBEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52395A74-33A4-4E8E-B525-C5D47F9A1BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,295 +25,295 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
   <si>
-    <t>STR NAME</t>
-  </si>
-  <si>
     <t>allowed_day</t>
   </si>
   <si>
-    <t>Karvasla</t>
-  </si>
-  <si>
-    <t>Gldani 3</t>
-  </si>
-  <si>
-    <t>Arakishvili</t>
-  </si>
-  <si>
-    <t>Gldani Mwvane Ubani</t>
-  </si>
-  <si>
-    <t>Gldani 4</t>
-  </si>
-  <si>
-    <t>Gogoli</t>
-  </si>
-  <si>
-    <t>Ortachala</t>
-  </si>
-  <si>
-    <t>Guramishvili</t>
-  </si>
-  <si>
-    <t>Dadiani</t>
-  </si>
-  <si>
-    <t>Dolidze</t>
-  </si>
-  <si>
-    <t>Vazha-Pshavela</t>
-  </si>
-  <si>
-    <t>Vazha-Pshavela 2</t>
-  </si>
-  <si>
-    <t>Varketili</t>
-  </si>
-  <si>
-    <t>Qarabak</t>
-  </si>
-  <si>
-    <t>Varketili 3</t>
-  </si>
-  <si>
-    <t>Lisi</t>
-  </si>
-  <si>
-    <t>Didi Digomi</t>
-  </si>
-  <si>
-    <t>Avlabari</t>
-  </si>
-  <si>
-    <t>Mitskevichi</t>
-  </si>
-  <si>
-    <t>Vazisubani 2</t>
-  </si>
-  <si>
-    <t>Nutsubidze</t>
-  </si>
-  <si>
-    <t>Mado Pushkini St</t>
-  </si>
-  <si>
-    <t>Farnavaz Mefe</t>
-  </si>
-  <si>
-    <t>Kazbegi</t>
-  </si>
-  <si>
-    <t>Rustavi</t>
-  </si>
-  <si>
-    <t>Rustavi 2</t>
-  </si>
-  <si>
-    <t>Bagebi</t>
-  </si>
-  <si>
-    <t>Shartava</t>
-  </si>
-  <si>
-    <t>Afrika</t>
-  </si>
-  <si>
-    <t>Aghmashenebeli</t>
-  </si>
-  <si>
-    <t>Tskneti</t>
-  </si>
-  <si>
-    <t>Vera Tatishvili</t>
-  </si>
-  <si>
-    <t>Agladze</t>
-  </si>
-  <si>
-    <t>Moskovis Gamziri</t>
-  </si>
-  <si>
-    <t>Hualing</t>
-  </si>
-  <si>
-    <t>Gabriel Salosi</t>
-  </si>
-  <si>
-    <t>Astoria</t>
-  </si>
-  <si>
-    <t>Gabriel Salosi 2</t>
-  </si>
-  <si>
-    <t>Sport House</t>
-  </si>
-  <si>
-    <t>Brtskinvale</t>
-  </si>
-  <si>
-    <t>Kavtaradze</t>
-  </si>
-  <si>
-    <t>farnavaz mefe 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sukhishvili </t>
-  </si>
-  <si>
-    <t>Bezhanishvili</t>
-  </si>
-  <si>
-    <t>Jiqia arqi</t>
-  </si>
-  <si>
-    <t>Mebrdzolta</t>
-  </si>
-  <si>
-    <t>Tsamebuli</t>
-  </si>
-  <si>
-    <t>Avtandili</t>
-  </si>
-  <si>
-    <t>jikia</t>
-  </si>
-  <si>
-    <t>VASHLIJVARI</t>
-  </si>
-  <si>
-    <t>KEDIA</t>
-  </si>
-  <si>
-    <t>SABA</t>
-  </si>
-  <si>
-    <t>GALAXY</t>
-  </si>
-  <si>
-    <t>ARCHIL MEFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivertubani </t>
-  </si>
-  <si>
-    <t>PONICHALA 2</t>
-  </si>
-  <si>
-    <t>Avlabari Martyopi</t>
-  </si>
-  <si>
-    <t>VARKETILI PETEPI</t>
-  </si>
-  <si>
-    <t>Gldani Qerchi</t>
-  </si>
-  <si>
-    <t>Chyondideli</t>
-  </si>
-  <si>
-    <t>Aslanidi Sport House</t>
-  </si>
-  <si>
-    <t>Digomi Davri</t>
-  </si>
-  <si>
-    <t>DIGHOMI NINE</t>
-  </si>
-  <si>
-    <t>GELOVANI</t>
-  </si>
-  <si>
-    <t>PETRE IBERI 2</t>
-  </si>
-  <si>
-    <t>Tbilisi Mall</t>
-  </si>
-  <si>
-    <t>East Point</t>
-  </si>
-  <si>
-    <t>GTC</t>
-  </si>
-  <si>
-    <t>Isani</t>
-  </si>
-  <si>
-    <t>Gldani 1</t>
-  </si>
-  <si>
-    <t>Axis</t>
-  </si>
-  <si>
-    <t>Gldani 2</t>
-  </si>
-  <si>
-    <t>Vake</t>
-  </si>
-  <si>
-    <t>Vazisubani</t>
-  </si>
-  <si>
-    <t>Saburtalo</t>
-  </si>
-  <si>
-    <t>Gori 2</t>
-  </si>
-  <si>
-    <t>Batumi 1</t>
-  </si>
-  <si>
-    <t>Batumi 2</t>
-  </si>
-  <si>
-    <t>Telavi</t>
-  </si>
-  <si>
-    <t>GORI</t>
-  </si>
-  <si>
-    <t>Poti</t>
-  </si>
-  <si>
-    <t>Marneuli</t>
-  </si>
-  <si>
-    <t>Batumi 5</t>
-  </si>
-  <si>
-    <t>Zestaponi</t>
-  </si>
-  <si>
-    <t>Shindisi</t>
-  </si>
-  <si>
-    <t>Zugdidi 3</t>
-  </si>
-  <si>
-    <t>Batumi Gorgasali</t>
-  </si>
-  <si>
-    <t>Natakhtari</t>
-  </si>
-  <si>
-    <t>Makhinjauri</t>
-  </si>
-  <si>
-    <t>Mazniashvili</t>
-  </si>
-  <si>
-    <t>BATUMI BAKO</t>
-  </si>
-  <si>
-    <t>CHITAIA</t>
-  </si>
-  <si>
-    <t>Kutaisi</t>
-  </si>
-  <si>
-    <t>Kutaisi agmashenebeli</t>
-  </si>
-  <si>
-    <t>kutaisi mtsvane</t>
+    <t>G28</t>
+  </si>
+  <si>
+    <t>G30</t>
+  </si>
+  <si>
+    <t>G47</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>GA4</t>
+  </si>
+  <si>
+    <t>GAL</t>
+  </si>
+  <si>
+    <t>G62</t>
+  </si>
+  <si>
+    <t>G45</t>
+  </si>
+  <si>
+    <t>GAI</t>
+  </si>
+  <si>
+    <t>G93</t>
+  </si>
+  <si>
+    <t>G05</t>
+  </si>
+  <si>
+    <t>G15</t>
+  </si>
+  <si>
+    <t>G06</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>G55</t>
+  </si>
+  <si>
+    <t>GAJ</t>
+  </si>
+  <si>
+    <t>G79</t>
+  </si>
+  <si>
+    <t>G83</t>
+  </si>
+  <si>
+    <t>G71</t>
+  </si>
+  <si>
+    <t>GAO</t>
+  </si>
+  <si>
+    <t>GAG</t>
+  </si>
+  <si>
+    <t>G43</t>
+  </si>
+  <si>
+    <t>G69</t>
+  </si>
+  <si>
+    <t>GA7</t>
+  </si>
+  <si>
+    <t>GAM</t>
+  </si>
+  <si>
+    <t>G36</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>G27</t>
+  </si>
+  <si>
+    <t>G77</t>
+  </si>
+  <si>
+    <t>G54</t>
+  </si>
+  <si>
+    <t>G63</t>
+  </si>
+  <si>
+    <t>G96</t>
+  </si>
+  <si>
+    <t>GAK</t>
+  </si>
+  <si>
+    <t>G04</t>
+  </si>
+  <si>
+    <t>G07</t>
+  </si>
+  <si>
+    <t>G19</t>
+  </si>
+  <si>
+    <t>G42</t>
+  </si>
+  <si>
+    <t>G58</t>
+  </si>
+  <si>
+    <t>GAF</t>
+  </si>
+  <si>
+    <t>G34</t>
+  </si>
+  <si>
+    <t>G26</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>G61</t>
+  </si>
+  <si>
+    <t>G51</t>
+  </si>
+  <si>
+    <t>G03</t>
+  </si>
+  <si>
+    <t>GA8</t>
+  </si>
+  <si>
+    <t>G81</t>
+  </si>
+  <si>
+    <t>G85</t>
+  </si>
+  <si>
+    <t>G01</t>
+  </si>
+  <si>
+    <t>G72</t>
+  </si>
+  <si>
+    <t>G37</t>
+  </si>
+  <si>
+    <t>G90</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>G86</t>
+  </si>
+  <si>
+    <t>G87</t>
+  </si>
+  <si>
+    <t>G16</t>
+  </si>
+  <si>
+    <t>G56</t>
+  </si>
+  <si>
+    <t>GA2</t>
+  </si>
+  <si>
+    <t>G52</t>
+  </si>
+  <si>
+    <t>GA3</t>
+  </si>
+  <si>
+    <t>G88</t>
+  </si>
+  <si>
+    <t>G66</t>
+  </si>
+  <si>
+    <t>G49</t>
+  </si>
+  <si>
+    <t>GA1</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>G35</t>
+  </si>
+  <si>
+    <t>GAP</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>G40</t>
+  </si>
+  <si>
+    <t>G41</t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>G95</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G18</t>
+  </si>
+  <si>
+    <t>G74</t>
+  </si>
+  <si>
+    <t>G65</t>
+  </si>
+  <si>
+    <t>G78</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>G21</t>
+  </si>
+  <si>
+    <t>G92</t>
+  </si>
+  <si>
+    <t>G39</t>
+  </si>
+  <si>
+    <t>G08</t>
+  </si>
+  <si>
+    <t>G14</t>
+  </si>
+  <si>
+    <t>G44</t>
+  </si>
+  <si>
+    <t>GAD</t>
+  </si>
+  <si>
+    <t>G89</t>
+  </si>
+  <si>
+    <t>G25</t>
+  </si>
+  <si>
+    <t>G53</t>
+  </si>
+  <si>
+    <t>G09</t>
+  </si>
+  <si>
+    <t>G50</t>
+  </si>
+  <si>
+    <t>G46</t>
+  </si>
+  <si>
+    <t>G68</t>
+  </si>
+  <si>
+    <t>G75</t>
+  </si>
+  <si>
+    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,15 +700,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>5</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>5</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>5</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>5</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>5</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>5</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>5</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>5</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2">
         <v>5</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2">
         <v>5</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2">
         <v>5</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2">
         <v>5</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2">
         <v>5</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2">
         <v>4</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2">
         <v>3</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2">
         <v>3</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2">
         <v>4</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2">
         <v>4</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2">
         <v>4</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2">
         <v>4</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B45" s="2">
         <v>5</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B48" s="2">
         <v>2</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B49" s="2">
         <v>5</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B50" s="2">
         <v>4</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B51" s="2">
         <v>1</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B53" s="2">
         <v>3</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B54" s="2">
         <v>3</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B55" s="2">
         <v>5</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B56" s="2">
         <v>5</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B57" s="2">
         <v>2</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B58" s="2">
         <v>5</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B59" s="2">
         <v>5</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B60" s="2">
         <v>5</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B61" s="2">
         <v>5</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B63" s="2">
         <v>4</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B65" s="2">
         <v>4</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B66" s="2">
         <v>1</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B67" s="2">
         <v>4</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B68" s="2">
         <v>5</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B69" s="2">
         <v>5</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B71" s="2">
         <v>1</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B72" s="2">
         <v>4</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B73" s="2">
         <v>5</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B74" s="2">
         <v>5</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B75" s="2">
         <v>5</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B76" s="2">
         <v>4</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B77" s="2">
         <v>5</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B78" s="2">
         <v>5</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B79" s="2">
         <v>4</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B80" s="2">
         <v>4</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B81" s="2">
         <v>1</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B82" s="2">
         <v>5</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B83" s="2">
         <v>4</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B84" s="2">
         <v>4</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B85" s="2">
         <v>5</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B86" s="2">
         <v>1</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B87" s="2">
         <v>3</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B88" s="2">
         <v>5</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B89" s="2">
         <v>1</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B90" s="2">
         <v>5</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B91" s="2">
         <v>5</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B92" s="2">
         <v>2</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B93" s="2">
         <v>5</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2">
         <v>1</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B95" s="2">
         <v>4</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B96" s="2">
         <v>2</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B97" s="2">
         <v>2</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B98" s="2">
         <v>5</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B99" s="2">
         <v>5</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="B100" s="2">
         <v>5</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B101" s="2">
         <v>5</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B102" s="2">
         <v>4</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2">
         <v>5</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B104" s="2">
         <v>5</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2">
         <v>1</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B106" s="2">
         <v>3</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="B107" s="2">
         <v>5</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B108" s="2">
         <v>5</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B109" s="2">
         <v>4</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B110" s="2">
         <v>2</v>
